--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -88,22 +88,22 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -997,25 +997,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.670995670995671</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L16">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1023,25 +1023,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1101,25 +1101,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5426829268292683</v>
+        <v>0.53125</v>
       </c>
       <c r="L20">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1127,25 +1127,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.53125</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="10:17">
